--- a/10-excel/poraba.xlsx
+++ b/10-excel/poraba.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nika\Documents\racunalniski_praktikum\10-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D111D-D626-4419-A1C2-B2012D9D692A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105F9D5-9594-4CEB-9C9F-CCD10092D14A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Poraba" sheetId="4" r:id="rId1"/>
+    <sheet name="List1" sheetId="5" r:id="rId1"/>
+    <sheet name="Poraba" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Poraba!$B$2:$G$21</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Poraba!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="120" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Bencin</t>
   </si>
@@ -72,6 +76,39 @@
   </si>
   <si>
     <t>Prikaz</t>
+  </si>
+  <si>
+    <t>Skupna vsota</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>Oznake stolpcev</t>
+  </si>
+  <si>
+    <t>Vrednosti</t>
+  </si>
+  <si>
+    <t>Skupaj kilometri</t>
+  </si>
+  <si>
+    <t>Povprečna poraba</t>
   </si>
 </sst>
 </file>
@@ -118,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -126,11 +163,43 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -275,6 +344,1185 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nika" refreshedDate="46020.644659375001" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="19" xr:uid="{C6FCAAD2-7B4A-4735-A40F-3F037F92A5ED}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="realna_poraba_cupra__2"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Datum" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-05-05T00:00:00" maxDate="2023-10-15T00:00:00" count="19">
+        <d v="2023-05-05T00:00:00"/>
+        <d v="2023-05-13T00:00:00"/>
+        <d v="2023-05-22T00:00:00"/>
+        <d v="2023-05-27T00:00:00"/>
+        <d v="2023-06-08T00:00:00"/>
+        <d v="2023-06-16T00:00:00"/>
+        <d v="2023-06-22T00:00:00"/>
+        <d v="2023-07-06T00:00:00"/>
+        <d v="2023-07-15T00:00:00"/>
+        <d v="2023-07-22T00:00:00"/>
+        <d v="2023-07-31T00:00:00"/>
+        <d v="2023-08-13T00:00:00"/>
+        <d v="2023-08-25T00:00:00"/>
+        <d v="2023-09-06T00:00:00"/>
+        <d v="2023-09-15T00:00:00"/>
+        <d v="2023-09-22T00:00:00"/>
+        <d v="2023-09-29T00:00:00"/>
+        <d v="2023-10-06T00:00:00"/>
+        <d v="2023-10-14T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="7" base="0">
+        <rangePr groupBy="days" startDate="2023-05-05T00:00:00" endDate="2023-10-15T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;5.05.2023"/>
+          <s v="1.jan"/>
+          <s v="2.jan"/>
+          <s v="3.jan"/>
+          <s v="4.jan"/>
+          <s v="5.jan"/>
+          <s v="6.jan"/>
+          <s v="7.jan"/>
+          <s v="8.jan"/>
+          <s v="9.jan"/>
+          <s v="10.jan"/>
+          <s v="11.jan"/>
+          <s v="12.jan"/>
+          <s v="13.jan"/>
+          <s v="14.jan"/>
+          <s v="15.jan"/>
+          <s v="16.jan"/>
+          <s v="17.jan"/>
+          <s v="18.jan"/>
+          <s v="19.jan"/>
+          <s v="20.jan"/>
+          <s v="21.jan"/>
+          <s v="22.jan"/>
+          <s v="23.jan"/>
+          <s v="24.jan"/>
+          <s v="25.jan"/>
+          <s v="26.jan"/>
+          <s v="27.jan"/>
+          <s v="28.jan"/>
+          <s v="29.jan"/>
+          <s v="30.jan"/>
+          <s v="31.jan"/>
+          <s v="1.feb"/>
+          <s v="2.feb"/>
+          <s v="3.feb"/>
+          <s v="4.feb"/>
+          <s v="5.feb"/>
+          <s v="6.feb"/>
+          <s v="7.feb"/>
+          <s v="8.feb"/>
+          <s v="9.feb"/>
+          <s v="10.feb"/>
+          <s v="11.feb"/>
+          <s v="12.feb"/>
+          <s v="13.feb"/>
+          <s v="14.feb"/>
+          <s v="15.feb"/>
+          <s v="16.feb"/>
+          <s v="17.feb"/>
+          <s v="18.feb"/>
+          <s v="19.feb"/>
+          <s v="20.feb"/>
+          <s v="21.feb"/>
+          <s v="22.feb"/>
+          <s v="23.feb"/>
+          <s v="24.feb"/>
+          <s v="25.feb"/>
+          <s v="26.feb"/>
+          <s v="27.feb"/>
+          <s v="28.feb"/>
+          <s v="29.feb"/>
+          <s v="1.mar"/>
+          <s v="2.mar"/>
+          <s v="3.mar"/>
+          <s v="4.mar"/>
+          <s v="5.mar"/>
+          <s v="6.mar"/>
+          <s v="7.mar"/>
+          <s v="8.mar"/>
+          <s v="9.mar"/>
+          <s v="10.mar"/>
+          <s v="11.mar"/>
+          <s v="12.mar"/>
+          <s v="13.mar"/>
+          <s v="14.mar"/>
+          <s v="15.mar"/>
+          <s v="16.mar"/>
+          <s v="17.mar"/>
+          <s v="18.mar"/>
+          <s v="19.mar"/>
+          <s v="20.mar"/>
+          <s v="21.mar"/>
+          <s v="22.mar"/>
+          <s v="23.mar"/>
+          <s v="24.mar"/>
+          <s v="25.mar"/>
+          <s v="26.mar"/>
+          <s v="27.mar"/>
+          <s v="28.mar"/>
+          <s v="29.mar"/>
+          <s v="30.mar"/>
+          <s v="31.mar"/>
+          <s v="1.apr"/>
+          <s v="2.apr"/>
+          <s v="3.apr"/>
+          <s v="4.apr"/>
+          <s v="5.apr"/>
+          <s v="6.apr"/>
+          <s v="7.apr"/>
+          <s v="8.apr"/>
+          <s v="9.apr"/>
+          <s v="10.apr"/>
+          <s v="11.apr"/>
+          <s v="12.apr"/>
+          <s v="13.apr"/>
+          <s v="14.apr"/>
+          <s v="15.apr"/>
+          <s v="16.apr"/>
+          <s v="17.apr"/>
+          <s v="18.apr"/>
+          <s v="19.apr"/>
+          <s v="20.apr"/>
+          <s v="21.apr"/>
+          <s v="22.apr"/>
+          <s v="23.apr"/>
+          <s v="24.apr"/>
+          <s v="25.apr"/>
+          <s v="26.apr"/>
+          <s v="27.apr"/>
+          <s v="28.apr"/>
+          <s v="29.apr"/>
+          <s v="30.apr"/>
+          <s v="1.maj"/>
+          <s v="2.maj"/>
+          <s v="3.maj"/>
+          <s v="4.maj"/>
+          <s v="5.maj"/>
+          <s v="6.maj"/>
+          <s v="7.maj"/>
+          <s v="8.maj"/>
+          <s v="9.maj"/>
+          <s v="10.maj"/>
+          <s v="11.maj"/>
+          <s v="12.maj"/>
+          <s v="13.maj"/>
+          <s v="14.maj"/>
+          <s v="15.maj"/>
+          <s v="16.maj"/>
+          <s v="17.maj"/>
+          <s v="18.maj"/>
+          <s v="19.maj"/>
+          <s v="20.maj"/>
+          <s v="21.maj"/>
+          <s v="22.maj"/>
+          <s v="23.maj"/>
+          <s v="24.maj"/>
+          <s v="25.maj"/>
+          <s v="26.maj"/>
+          <s v="27.maj"/>
+          <s v="28.maj"/>
+          <s v="29.maj"/>
+          <s v="30.maj"/>
+          <s v="31.maj"/>
+          <s v="1.jun"/>
+          <s v="2.jun"/>
+          <s v="3.jun"/>
+          <s v="4.jun"/>
+          <s v="5.jun"/>
+          <s v="6.jun"/>
+          <s v="7.jun"/>
+          <s v="8.jun"/>
+          <s v="9.jun"/>
+          <s v="10.jun"/>
+          <s v="11.jun"/>
+          <s v="12.jun"/>
+          <s v="13.jun"/>
+          <s v="14.jun"/>
+          <s v="15.jun"/>
+          <s v="16.jun"/>
+          <s v="17.jun"/>
+          <s v="18.jun"/>
+          <s v="19.jun"/>
+          <s v="20.jun"/>
+          <s v="21.jun"/>
+          <s v="22.jun"/>
+          <s v="23.jun"/>
+          <s v="24.jun"/>
+          <s v="25.jun"/>
+          <s v="26.jun"/>
+          <s v="27.jun"/>
+          <s v="28.jun"/>
+          <s v="29.jun"/>
+          <s v="30.jun"/>
+          <s v="1.jul"/>
+          <s v="2.jul"/>
+          <s v="3.jul"/>
+          <s v="4.jul"/>
+          <s v="5.jul"/>
+          <s v="6.jul"/>
+          <s v="7.jul"/>
+          <s v="8.jul"/>
+          <s v="9.jul"/>
+          <s v="10.jul"/>
+          <s v="11.jul"/>
+          <s v="12.jul"/>
+          <s v="13.jul"/>
+          <s v="14.jul"/>
+          <s v="15.jul"/>
+          <s v="16.jul"/>
+          <s v="17.jul"/>
+          <s v="18.jul"/>
+          <s v="19.jul"/>
+          <s v="20.jul"/>
+          <s v="21.jul"/>
+          <s v="22.jul"/>
+          <s v="23.jul"/>
+          <s v="24.jul"/>
+          <s v="25.jul"/>
+          <s v="26.jul"/>
+          <s v="27.jul"/>
+          <s v="28.jul"/>
+          <s v="29.jul"/>
+          <s v="30.jul"/>
+          <s v="31.jul"/>
+          <s v="1.avg"/>
+          <s v="2.avg"/>
+          <s v="3.avg"/>
+          <s v="4.avg"/>
+          <s v="5.avg"/>
+          <s v="6.avg"/>
+          <s v="7.avg"/>
+          <s v="8.avg"/>
+          <s v="9.avg"/>
+          <s v="10.avg"/>
+          <s v="11.avg"/>
+          <s v="12.avg"/>
+          <s v="13.avg"/>
+          <s v="14.avg"/>
+          <s v="15.avg"/>
+          <s v="16.avg"/>
+          <s v="17.avg"/>
+          <s v="18.avg"/>
+          <s v="19.avg"/>
+          <s v="20.avg"/>
+          <s v="21.avg"/>
+          <s v="22.avg"/>
+          <s v="23.avg"/>
+          <s v="24.avg"/>
+          <s v="25.avg"/>
+          <s v="26.avg"/>
+          <s v="27.avg"/>
+          <s v="28.avg"/>
+          <s v="29.avg"/>
+          <s v="30.avg"/>
+          <s v="31.avg"/>
+          <s v="1.sep"/>
+          <s v="2.sep"/>
+          <s v="3.sep"/>
+          <s v="4.sep"/>
+          <s v="5.sep"/>
+          <s v="6.sep"/>
+          <s v="7.sep"/>
+          <s v="8.sep"/>
+          <s v="9.sep"/>
+          <s v="10.sep"/>
+          <s v="11.sep"/>
+          <s v="12.sep"/>
+          <s v="13.sep"/>
+          <s v="14.sep"/>
+          <s v="15.sep"/>
+          <s v="16.sep"/>
+          <s v="17.sep"/>
+          <s v="18.sep"/>
+          <s v="19.sep"/>
+          <s v="20.sep"/>
+          <s v="21.sep"/>
+          <s v="22.sep"/>
+          <s v="23.sep"/>
+          <s v="24.sep"/>
+          <s v="25.sep"/>
+          <s v="26.sep"/>
+          <s v="27.sep"/>
+          <s v="28.sep"/>
+          <s v="29.sep"/>
+          <s v="30.sep"/>
+          <s v="1.okt"/>
+          <s v="2.okt"/>
+          <s v="3.okt"/>
+          <s v="4.okt"/>
+          <s v="5.okt"/>
+          <s v="6.okt"/>
+          <s v="7.okt"/>
+          <s v="8.okt"/>
+          <s v="9.okt"/>
+          <s v="10.okt"/>
+          <s v="11.okt"/>
+          <s v="12.okt"/>
+          <s v="13.okt"/>
+          <s v="14.okt"/>
+          <s v="15.okt"/>
+          <s v="16.okt"/>
+          <s v="17.okt"/>
+          <s v="18.okt"/>
+          <s v="19.okt"/>
+          <s v="20.okt"/>
+          <s v="21.okt"/>
+          <s v="22.okt"/>
+          <s v="23.okt"/>
+          <s v="24.okt"/>
+          <s v="25.okt"/>
+          <s v="26.okt"/>
+          <s v="27.okt"/>
+          <s v="28.okt"/>
+          <s v="29.okt"/>
+          <s v="30.okt"/>
+          <s v="31.okt"/>
+          <s v="1.nov"/>
+          <s v="2.nov"/>
+          <s v="3.nov"/>
+          <s v="4.nov"/>
+          <s v="5.nov"/>
+          <s v="6.nov"/>
+          <s v="7.nov"/>
+          <s v="8.nov"/>
+          <s v="9.nov"/>
+          <s v="10.nov"/>
+          <s v="11.nov"/>
+          <s v="12.nov"/>
+          <s v="13.nov"/>
+          <s v="14.nov"/>
+          <s v="15.nov"/>
+          <s v="16.nov"/>
+          <s v="17.nov"/>
+          <s v="18.nov"/>
+          <s v="19.nov"/>
+          <s v="20.nov"/>
+          <s v="21.nov"/>
+          <s v="22.nov"/>
+          <s v="23.nov"/>
+          <s v="24.nov"/>
+          <s v="25.nov"/>
+          <s v="26.nov"/>
+          <s v="27.nov"/>
+          <s v="28.nov"/>
+          <s v="29.nov"/>
+          <s v="30.nov"/>
+          <s v="1.dec"/>
+          <s v="2.dec"/>
+          <s v="3.dec"/>
+          <s v="4.dec"/>
+          <s v="5.dec"/>
+          <s v="6.dec"/>
+          <s v="7.dec"/>
+          <s v="8.dec"/>
+          <s v="9.dec"/>
+          <s v="10.dec"/>
+          <s v="11.dec"/>
+          <s v="12.dec"/>
+          <s v="13.dec"/>
+          <s v="14.dec"/>
+          <s v="15.dec"/>
+          <s v="16.dec"/>
+          <s v="17.dec"/>
+          <s v="18.dec"/>
+          <s v="19.dec"/>
+          <s v="20.dec"/>
+          <s v="21.dec"/>
+          <s v="22.dec"/>
+          <s v="23.dec"/>
+          <s v="24.dec"/>
+          <s v="25.dec"/>
+          <s v="26.dec"/>
+          <s v="27.dec"/>
+          <s v="28.dec"/>
+          <s v="29.dec"/>
+          <s v="30.dec"/>
+          <s v="31.dec"/>
+          <s v="&gt;15.10.2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Litri" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="34.04" maxValue="43.1"/>
+    </cacheField>
+    <cacheField name="Plačano" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.043279999999996" maxValue="64.097279999999998"/>
+    </cacheField>
+    <cacheField name="Števec" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41907" maxValue="52176"/>
+    </cacheField>
+    <cacheField name="Prevoženo" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="446" maxValue="683" count="19">
+        <s v=""/>
+        <n v="614"/>
+        <n v="660"/>
+        <n v="515"/>
+        <n v="618"/>
+        <n v="683"/>
+        <n v="549"/>
+        <n v="580"/>
+        <n v="561"/>
+        <n v="563"/>
+        <n v="617"/>
+        <n v="540"/>
+        <n v="598"/>
+        <n v="475"/>
+        <n v="532"/>
+        <n v="446"/>
+        <n v="533"/>
+        <n v="602"/>
+        <n v="583"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Poraba" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.3103953147877023" maxValue="8.1008968609865484" count="19">
+        <m/>
+        <n v="7.006514657980456"/>
+        <n v="6.3136363636363644"/>
+        <n v="6.6097087378640769"/>
+        <n v="6.8640776699029127"/>
+        <n v="6.3103953147877023"/>
+        <n v="6.9544626593806917"/>
+        <n v="7.0103448275862066"/>
+        <n v="6.9821746880570412"/>
+        <n v="7.1563055062166967"/>
+        <n v="6.6466774716369521"/>
+        <n v="6.8851851851851844"/>
+        <n v="6.9331103678929766"/>
+        <n v="7.5726315789473686"/>
+        <n v="7.2819548872180455"/>
+        <n v="8.1008968609865484"/>
+        <n v="7.2251407129455911"/>
+        <n v="6.4518272425249172"/>
+        <n v="7.1578044596912509"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Prikaz" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.3103953147877023" maxValue="8.1008968609865484"/>
+    </cacheField>
+    <cacheField name="Meseci" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2023-05-05T00:00:00" endDate="2023-10-15T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;5.05.2023"/>
+          <s v="jan"/>
+          <s v="feb"/>
+          <s v="mar"/>
+          <s v="apr"/>
+          <s v="maj"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="avg"/>
+          <s v="sep"/>
+          <s v="okt"/>
+          <s v="nov"/>
+          <s v="dec"/>
+          <s v="&gt;15.10.2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <x v="0"/>
+    <n v="41.17"/>
+    <n v="58.296720000000001"/>
+    <n v="41907"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43.02"/>
+    <n v="59.797800000000002"/>
+    <n v="42521"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.006514657980456"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="41.67"/>
+    <n v="57.921299999999995"/>
+    <n v="43181"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6.3136363636363644"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="34.04"/>
+    <n v="47.043279999999996"/>
+    <n v="43696"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="6.6097087378640769"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="42.42"/>
+    <n v="59.897039999999997"/>
+    <n v="44314"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="6.8640776699029127"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="43.1"/>
+    <n v="60.857199999999999"/>
+    <n v="44997"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="6.3103953147877023"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="38.18"/>
+    <n v="54.368319999999997"/>
+    <n v="45546"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="6.9544626593806917"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="40.659999999999997"/>
+    <n v="58.713039999999992"/>
+    <n v="46126"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="7.0103448275862066"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="39.17"/>
+    <n v="56.561480000000003"/>
+    <n v="46687"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="6.9821746880570412"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="40.29"/>
+    <n v="58.662239999999997"/>
+    <n v="47250"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="7.1563055062166967"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="41.01"/>
+    <n v="59.710559999999994"/>
+    <n v="47867"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="6.6466774716369521"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="37.18"/>
+    <n v="56.178979999999996"/>
+    <n v="48407"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="6.8851851851851844"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="41.46"/>
+    <n v="62.646059999999999"/>
+    <n v="49005"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="6.9331103678929766"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="35.97"/>
+    <n v="55.537680000000002"/>
+    <n v="49480"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="7.5726315789473686"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="38.74"/>
+    <n v="60.085740000000001"/>
+    <n v="50012"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="7.2819548872180455"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="36.130000000000003"/>
+    <n v="56.03763"/>
+    <n v="50458"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="8.1008968609865484"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="38.51"/>
+    <n v="61.153880000000001"/>
+    <n v="50991"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="7.2251407129455911"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="38.840000000000003"/>
+    <n v="61.677920000000007"/>
+    <n v="51593"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="6.4518272425249172"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="41.73"/>
+    <n v="64.097279999999998"/>
+    <n v="52176"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="7.1578044596912509"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD6FBBF6-E816-490B-8F34-3C12D5F9BD6A}" name="Vrtilna tabela9" cacheId="120" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="20">
+        <item x="15"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="20">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Skupaj kilometri" fld="4" baseField="7" baseItem="5"/>
+    <dataField name="Povprečna poraba" fld="5" subtotal="average" baseField="7" baseItem="5"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{88864778-F620-4D44-B290-593D022A2D1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13" unboundColumnsRight="1">
@@ -299,13 +1547,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B308AD5-65CF-A249-80D4-A2A1301BDB4E}" name="realna_poraba_cupra__2" displayName="realna_poraba_cupra__2" ref="B2:H21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:H21" xr:uid="{4B308AD5-65CF-A249-80D4-A2A1301BDB4E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E4C5B71E-FC31-5C41-A064-103F27749A97}" uniqueName="1" name="Datum" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6DC2697C-FCB3-8A47-945B-8CD05834AA8C}" uniqueName="2" name="Litri" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{19DBC541-3ADF-4E48-8786-6E42DA219788}" uniqueName="3" name="Plačano" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3238A9AD-2FC0-0E49-9EE3-7019C05B366B}" uniqueName="4" name="Števec" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E0B5480D-9C8F-CA4C-941D-AE9FDE0CDFDC}" uniqueName="5" name="Prevoženo" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{1DEAFC6B-8470-6742-BAB3-957B7429D133}" uniqueName="6" name="Poraba" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{911769A8-5CFE-8245-A64B-38797D90A3B5}" uniqueName="11" name="Prikaz" queryTableFieldId="11" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{E4C5B71E-FC31-5C41-A064-103F27749A97}" uniqueName="1" name="Datum" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6DC2697C-FCB3-8A47-945B-8CD05834AA8C}" uniqueName="2" name="Litri" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{19DBC541-3ADF-4E48-8786-6E42DA219788}" uniqueName="3" name="Plačano" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3238A9AD-2FC0-0E49-9EE3-7019C05B366B}" uniqueName="4" name="Števec" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E0B5480D-9C8F-CA4C-941D-AE9FDE0CDFDC}" uniqueName="5" name="Prevoženo" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{1DEAFC6B-8470-6742-BAB3-957B7429D133}" uniqueName="6" name="Poraba" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{911769A8-5CFE-8245-A64B-38797D90A3B5}" uniqueName="11" name="Prikaz" queryTableFieldId="11" dataDxfId="9">
       <calculatedColumnFormula>100*(realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -314,14 +1562,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8D6AF57-84FE-3944-82AB-DB7DC1C050CB}" name="Table3" displayName="Table3" ref="J2:K25" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8D6AF57-84FE-3944-82AB-DB7DC1C050CB}" name="Table3" displayName="Table3" ref="J2:K25" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="J2:K25" xr:uid="{E8D6AF57-84FE-3944-82AB-DB7DC1C050CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:K25">
     <sortCondition ref="J2:J25"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C7E1327-9FA7-3E43-8151-18CCECA1E09D}" name="Veljavnost" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{079EA12A-47EB-F54A-8E37-30D8BCE75150}" name="Bencin" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0C7E1327-9FA7-3E43-8151-18CCECA1E09D}" name="Veljavnost" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{079EA12A-47EB-F54A-8E37-30D8BCE75150}" name="Bencin" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,11 +1895,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5C1B90-E99B-46E2-B821-AE20DC848C04}">
+  <dimension ref="A3:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1789</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1850</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2321</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1138</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1986</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1185</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.643286586493633</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.7096452146904353</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.9488756233742244</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.909147776539081</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.5451560100243888</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.8048158511080841</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.9701582884689435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CECC9D-4E93-D44D-AE31-BECED325B0FB}">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
